--- a/react.xlsx
+++ b/react.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="16440" windowHeight="10890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>vscode安装插件</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>翻页</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
   </si>
   <si>
     <t>弹出</t>
@@ -263,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -283,25 +286,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +317,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -336,7 +363,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,30 +401,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -396,25 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,25 +445,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,90 +595,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,13 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,37 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,17 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,6 +668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -680,11 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,17 +722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,15 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -750,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1850,7 +1853,7 @@
   <dimension ref="B3:T149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
@@ -1919,82 +1922,85 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:10">
       <c r="C15" t="s">
         <v>62</v>
       </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="6:20">
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="20:20">
       <c r="T23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="6:20">
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="6:20">
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="6:20">
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="9:9">
       <c r="I30" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="1"/>
     <row r="32" customFormat="1"/>
     <row r="33" customFormat="1" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="1"/>
@@ -2006,7 +2012,7 @@
     <row r="40" customFormat="1"/>
     <row r="41" customFormat="1" spans="2:2">
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="1"/>
@@ -2017,7 +2023,7 @@
     <row r="47" customFormat="1"/>
     <row r="48" customFormat="1" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" customFormat="1"/>
@@ -2029,12 +2035,12 @@
     <row r="55" customFormat="1"/>
     <row r="56" s="1" customFormat="1" spans="9:9">
       <c r="I56" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" customFormat="1"/>
@@ -2072,7 +2078,7 @@
     <row r="90" customFormat="1"/>
     <row r="91" customFormat="1" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" customFormat="1"/>
@@ -2091,7 +2097,7 @@
     <row r="105" customFormat="1"/>
     <row r="106" customFormat="1" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" customFormat="1"/>
